--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EImanuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A4A34C-6D13-4CD0-9308-A6EB8FCFF4DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F2E01-E613-4FEC-BD5D-66E9E31B242C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="60">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>解码时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*不带括号的数据表示R-MED对比H.26X直接跳过变换和量化的优化效果；圆括号中的数据表示R-MED对比RDPCM(H.265)或BDPCM(H.266)的优化效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,10 +248,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="\(\-0.00%\)"/>
-    <numFmt numFmtId="179" formatCode="\(0%\)"/>
+    <numFmt numFmtId="177" formatCode="\(\-0.00%\)"/>
+    <numFmt numFmtId="178" formatCode="\(0%\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +288,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +410,54 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -429,57 +488,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -762,14 +774,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -779,35 +791,35 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="26"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
@@ -827,7 +839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -859,7 +871,7 @@
         <v>0.79323076923076896</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -891,7 +903,7 @@
         <v>0.86161648687811898</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -923,7 +935,7 @@
         <v>0.96198116498081598</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -955,7 +967,7 @@
         <v>0.95616342275995103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -987,7 +999,7 @@
         <v>0.95749117741417999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>0.88624841571609603</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>0.84677670507629998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1083,7 +1095,7 @@
         <v>0.96460843373493999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>0.97318339100345996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1159,7 @@
         <v>0.96460843373493999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>0.88131313131313105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>0.95192307692307698</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>0.89745693191140297</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1371,7 +1383,7 @@
         <v>0.92138939670932396</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1415,7 @@
         <v>0.93017009847806598</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>0.99304267161409998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1479,7 @@
         <v>0.85976355483081901</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>0.87421665174574703</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>1.00922722029988</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>0.98015364916773395</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
@@ -1627,40 +1639,40 @@
         <v>0.87728459530026104</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:10" s="24" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="21">
         <f>AVERAGE(E3:E27)</f>
         <v>-7.1200080016072656E-2</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="23">
         <f t="shared" ref="F28" si="0">AVERAGE(F3:F27)</f>
         <v>1.0079769937172107</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="23">
         <f t="shared" ref="G28" si="1">AVERAGE(G3:G27)</f>
         <v>0.9530863121687172</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="21">
         <f t="shared" ref="H28" si="2">AVERAGE(H3:H27)</f>
         <v>-2.4998873068029143E-2</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="23">
         <f t="shared" ref="I28" si="3">AVERAGE(I3:I27)</f>
         <v>1.1124207398019568</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="23">
         <f t="shared" ref="J28" si="4">AVERAGE(J3:J27)</f>
         <v>0.93111397515292449</v>
       </c>
@@ -1682,54 +1694,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1F13C-4775-4AF7-A1A2-40B25D98C6F8}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1742,21 +1754,21 @@
       <c r="D3" s="9">
         <v>150</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="32">
         <v>-0.11095953848136603</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="30">
         <v>5.9939775018571582E-2</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="32">
         <v>-9.6714172635600559E-2</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="30">
         <v>5.9890765730923494E-2</v>
       </c>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1769,21 +1781,21 @@
       <c r="D4" s="9">
         <v>150</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="32">
         <v>-0.10098315237712187</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="30">
         <v>3.5434219827300772E-2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="32">
         <v>-8.5999893124358837E-2</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="30">
         <v>3.7671738039464678E-2</v>
       </c>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1796,21 +1808,21 @@
       <c r="D5" s="9">
         <v>500</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="32">
         <v>-2.1931170457998857E-2</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="30">
         <v>4.8780746732910813E-3</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="32">
         <v>-1.4168213476831906E-2</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="30">
         <v>5.2146188113648892E-3</v>
       </c>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -1823,21 +1835,21 @@
       <c r="D6" s="9">
         <v>600</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="32">
         <v>-5.4281050239151557E-2</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="30">
         <v>9.5763382925902092E-3</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="32">
         <v>-4.1640738225098187E-2</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="30">
         <v>1.1479736071376071E-2</v>
       </c>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1850,21 +1862,21 @@
       <c r="D7" s="9">
         <v>500</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="32">
         <v>-2.9238177476898872E-2</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="30">
         <v>9.8702513679342265E-3</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="32">
         <v>-2.1353363057088424E-2</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="30">
         <v>1.0532115562873126E-2</v>
       </c>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1877,21 +1889,21 @@
       <c r="D8" s="9">
         <v>240</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="32">
         <v>-6.8159221166208081E-2</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="30">
         <v>2.6309169608702065E-2</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="32">
         <v>-5.9630696121610441E-2</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="30">
         <v>3.3530197630592694E-2</v>
       </c>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -1904,21 +1916,21 @@
       <c r="D9" s="9">
         <v>240</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="32">
         <v>-5.8463200647483539E-2</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="30">
         <v>2.2636495366830461E-2</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="32">
         <v>-4.8717222502321703E-2</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="30">
         <v>2.583539252662501E-2</v>
       </c>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1931,21 +1943,21 @@
       <c r="D10" s="9">
         <v>500</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="32">
         <v>-2.6082558902753517E-2</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="30">
         <v>1.1441078991314135E-2</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="32">
         <v>-1.9234642880217697E-2</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="30">
         <v>1.2184368122809843E-2</v>
       </c>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1958,21 +1970,21 @@
       <c r="D11" s="9">
         <v>600</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="32">
         <v>-4.161459718160064E-2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="30">
         <v>6.6320816921751208E-3</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="32">
         <v>-3.0967426596376076E-2</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="30">
         <v>8.5574131833144849E-3</v>
       </c>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1985,21 +1997,21 @@
       <c r="D12" s="9">
         <v>500</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="32">
         <v>-3.7985944544457334E-2</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="30">
         <v>5.1244809313068379E-3</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="32">
         <v>-2.6466162940794395E-2</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="30">
         <v>6.8580044276041708E-3</v>
       </c>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2012,21 +2024,21 @@
       <c r="D13" s="9">
         <v>300</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="32">
         <v>-7.029437474121443E-2</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="30">
         <v>2.6379802627931475E-2</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="32">
         <v>-6.1331820163450027E-2</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="30">
         <v>3.2470976064210982E-2</v>
       </c>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -2039,21 +2051,21 @@
       <c r="D14" s="9">
         <v>500</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="32">
         <v>-9.1019643189264199E-2</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="30">
         <v>1.9234416487545834E-2</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="32">
         <v>-7.7144004199993829E-2</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="30">
         <v>2.6944467502282726E-2</v>
       </c>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -2066,21 +2078,21 @@
       <c r="D15" s="9">
         <v>500</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="32">
         <v>-4.113398216284038E-2</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="30">
         <v>1.9270096876351187E-2</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="32">
         <v>-3.1454427160347784E-2</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="30">
         <v>7.4847374847374845E-3</v>
       </c>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -2093,21 +2105,21 @@
       <c r="D16" s="9">
         <v>600</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="32">
         <v>-3.0966163113558286E-2</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="30">
         <v>4.8139776406622278E-3</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="32">
         <v>-2.2380706033059888E-2</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="30">
         <v>5.5759502453670414E-3</v>
       </c>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2120,21 +2132,21 @@
       <c r="D17" s="9">
         <v>300</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="32">
         <v>-8.2944362026751581E-2</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="30">
         <v>3.5318809229501445E-2</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="32">
         <v>-7.2300039438698269E-2</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="30">
         <v>3.5753384422311824E-2</v>
       </c>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -2147,21 +2159,21 @@
       <c r="D18" s="9">
         <v>600</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="32">
         <v>-9.2313913306388037E-2</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="30">
         <v>3.833096709958983E-2</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="32">
         <v>-7.9164082896560989E-2</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="30">
         <v>3.9722239188537414E-2</v>
       </c>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -2174,21 +2186,21 @@
       <c r="D19" s="9">
         <v>600</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="32">
         <v>-6.9902322992054247E-2</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="30">
         <v>2.5809304180465731E-2</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="32">
         <v>-6.1340816322162359E-2</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="30">
         <v>3.0404835250887146E-2</v>
       </c>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -2201,21 +2213,21 @@
       <c r="D20" s="9">
         <v>600</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="32">
         <v>-7.3534509124273631E-2</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="30">
         <v>2.5950532897009923E-2</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="32">
         <v>-6.3990933824706192E-2</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="30">
         <v>2.8152450989381798E-2</v>
       </c>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -2228,21 +2240,21 @@
       <c r="D21" s="9">
         <v>600</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="32">
         <v>-9.9318148905836012E-2</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="30">
         <v>3.2996709966023899E-2</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="32">
         <v>-8.5563079922705981E-2</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="30">
         <v>3.653652016227029E-2</v>
       </c>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -2255,21 +2267,21 @@
       <c r="D22" s="9">
         <v>600</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="32">
         <v>-9.1014006082851789E-2</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="30">
         <v>3.6029150255473402E-2</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="32">
         <v>-7.6394017624696359E-2</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="30">
         <v>3.7977749430818171E-2</v>
       </c>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -2282,21 +2294,21 @@
       <c r="D23" s="9">
         <v>600</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="32">
         <v>-8.9227163711629226E-2</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="30">
         <v>2.6494842652541178E-2</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="32">
         <v>-7.3595002379375024E-2</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="30">
         <v>3.0432471899508769E-2</v>
       </c>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2309,21 +2321,21 @@
       <c r="D24" s="9">
         <v>500</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="32">
         <v>-3.0070399308517293E-2</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="30">
         <v>1.185753858945021E-2</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="32">
         <v>-2.2071635232526789E-2</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="30">
         <v>1.1749677587867508E-2</v>
       </c>
-      <c r="J24" s="40"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2336,21 +2348,21 @@
       <c r="D25" s="9">
         <v>500</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="32">
         <v>-9.1305135597465503E-2</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="30">
         <v>1.3460880184289164E-2</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="32">
         <v>-7.858280322820492E-2</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="30">
         <v>1.469597480505833E-2</v>
       </c>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2363,21 +2375,21 @@
       <c r="D26" s="9">
         <v>300</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="32">
         <v>-7.3325225358109966E-2</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="30">
         <v>5.1442805039269672E-3</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="32">
         <v>-7.2017172684312944E-2</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="30">
         <v>7.9928368693800364E-3</v>
       </c>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2390,80 +2402,85 @@
       <c r="D27" s="9">
         <v>500</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="32">
         <v>-0.18445937648028912</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="30">
         <v>5.1556592473779049E-2</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="32">
         <v>-0.17361449007395874</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="30">
         <v>6.7323204691160585E-2</v>
       </c>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="44">
+      <c r="B28" s="45"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="33">
         <f>AVERAGE(E3:E27)</f>
         <v>-7.0421093503043361E-2</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="31">
         <f t="shared" ref="F28:H28" si="0">AVERAGE(F3:F27)</f>
         <v>2.2579594697382323E-2</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="33">
         <f t="shared" si="0"/>
         <v>-5.9833502509802322E-2</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="31">
         <f t="shared" si="0"/>
         <v>2.4998873068029143E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:10" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="E29" s="45">
+      <c r="B29" s="46"/>
+      <c r="E29" s="34">
         <v>1.04</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="36">
         <v>1.07</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="34">
         <v>1.17</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="36">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+    <row r="30" spans="1:10" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="46">
+      <c r="B30" s="47"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="35">
         <v>0.95</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="37">
         <v>0.98</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="35">
         <v>0.83</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="37">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2492,18 +2509,18 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="16.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="11.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2523,7 +2540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -2544,7 +2561,7 @@
         <v>-0.85143606525572124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -2565,7 +2582,7 @@
         <v>-0.84376475798671224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -2586,7 +2603,7 @@
         <v>-0.57471867349737071</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -2607,7 +2624,7 @@
         <v>-0.45381786752391717</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>-0.87298098435958382</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -2649,7 +2666,7 @@
         <v>-0.47475761769503677</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>

--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EImanuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F2E01-E613-4FEC-BD5D-66E9E31B242C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587FFC26-2A36-4939-A05E-C8284F0BEBD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="26940" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +240,16 @@
   </si>
   <si>
     <t>*不带括号的数据表示R-MED对比H.26X直接跳过变换和量化的优化效果；圆括号中的数据表示R-MED对比RDPCM(H.265)或BDPCM(H.266)的优化效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265 + R-MED
+vs H.265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.266 + R-MED
+vs H.266</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +262,7 @@
     <numFmt numFmtId="177" formatCode="\(\-0.00%\)"/>
     <numFmt numFmtId="178" formatCode="\(0%\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +306,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -355,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +488,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,7 +531,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -778,10 +863,10 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -791,35 +876,35 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
@@ -839,7 +924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -871,7 +956,7 @@
         <v>0.79323076923076896</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -903,7 +988,7 @@
         <v>0.86161648687811898</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -935,7 +1020,7 @@
         <v>0.96198116498081598</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -967,7 +1052,7 @@
         <v>0.95616342275995103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -999,7 +1084,7 @@
         <v>0.95749117741417999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1031,7 +1116,7 @@
         <v>0.88624841571609603</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -1063,7 +1148,7 @@
         <v>0.84677670507629998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1095,7 +1180,7 @@
         <v>0.96460843373493999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1127,7 +1212,7 @@
         <v>0.97318339100345996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1159,7 +1244,7 @@
         <v>0.96460843373493999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1191,7 +1276,7 @@
         <v>0.88131313131313105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1223,7 +1308,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -1287,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -1319,7 +1404,7 @@
         <v>0.95192307692307698</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1351,7 +1436,7 @@
         <v>0.89745693191140297</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1383,7 +1468,7 @@
         <v>0.92138939670932396</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -1415,7 +1500,7 @@
         <v>0.93017009847806598</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1532,7 @@
         <v>0.99304267161409998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -1479,7 +1564,7 @@
         <v>0.85976355483081901</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -1511,7 +1596,7 @@
         <v>0.87421665174574703</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1575,7 +1660,7 @@
         <v>1.00922722029988</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1607,7 +1692,7 @@
         <v>0.98015364916773395</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
@@ -1639,7 +1724,7 @@
         <v>0.87728459530026104</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="24" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
@@ -1694,54 +1779,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1F13C-4775-4AF7-A1A2-40B25D98C6F8}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H1" s="46"/>
+      <c r="K1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1767,8 +1865,24 @@
         <v>5.9890765730923494E-2</v>
       </c>
       <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="32">
+        <f>AVERAGE(E3:E4)</f>
+        <v>-0.10597134542924394</v>
+      </c>
+      <c r="L3" s="30">
+        <f>AVERAGE(F3:F4)</f>
+        <v>4.7686997422936181E-2</v>
+      </c>
+      <c r="M3" s="32">
+        <f>AVERAGE(G3:G4)</f>
+        <v>-9.1357032879979705E-2</v>
+      </c>
+      <c r="N3" s="30">
+        <f>AVERAGE(H3:H4)</f>
+        <v>4.8781251885194082E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1794,8 +1908,12 @@
         <v>3.7671738039464678E-2</v>
       </c>
       <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="32"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1821,8 +1939,24 @@
         <v>5.2146188113648892E-3</v>
       </c>
       <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="32">
+        <f>AVERAGE(E5:E8)</f>
+        <v>-4.3402404835064343E-2</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" ref="L5:N5" si="0">AVERAGE(F5:F8)</f>
+        <v>1.2658458485629395E-2</v>
+      </c>
+      <c r="M5" s="32">
+        <f t="shared" si="0"/>
+        <v>-3.4198252720157238E-2</v>
+      </c>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
+        <v>1.5189167019051694E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -1848,8 +1982,12 @@
         <v>1.1479736071376071E-2</v>
       </c>
       <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="32"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1875,8 +2013,12 @@
         <v>1.0532115562873126E-2</v>
       </c>
       <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="32"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1902,8 +2044,12 @@
         <v>3.3530197630592694E-2</v>
       </c>
       <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="32"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -1929,8 +2075,24 @@
         <v>2.583539252662501E-2</v>
       </c>
       <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="32">
+        <f>AVERAGE(E9:E12)</f>
+        <v>-4.1036575319073752E-2</v>
+      </c>
+      <c r="L9" s="30">
+        <f t="shared" ref="L9:N9" si="1">AVERAGE(F9:F12)</f>
+        <v>1.1458534245406639E-2</v>
+      </c>
+      <c r="M9" s="32">
+        <f t="shared" si="1"/>
+        <v>-3.1346363729927468E-2</v>
+      </c>
+      <c r="N9" s="30">
+        <f t="shared" si="1"/>
+        <v>1.3358794565088377E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1956,8 +2118,12 @@
         <v>1.2184368122809843E-2</v>
       </c>
       <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="32"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1983,8 +2149,12 @@
         <v>8.5574131833144849E-3</v>
       </c>
       <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="32"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2010,8 +2180,12 @@
         <v>6.8580044276041708E-3</v>
       </c>
       <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="32"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2037,8 +2211,24 @@
         <v>3.2470976064210982E-2</v>
       </c>
       <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="32">
+        <f>AVERAGE(E13:E17)</f>
+        <v>-6.3271705046725774E-2</v>
+      </c>
+      <c r="L13" s="30">
+        <f t="shared" ref="L13:N13" si="2">AVERAGE(F13:F17)</f>
+        <v>2.1003420572398436E-2</v>
+      </c>
+      <c r="M13" s="32">
+        <f t="shared" si="2"/>
+        <v>-5.2922199399109957E-2</v>
+      </c>
+      <c r="N13" s="30">
+        <f t="shared" si="2"/>
+        <v>2.1645903143782012E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -2064,8 +2254,12 @@
         <v>2.6944467502282726E-2</v>
       </c>
       <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="32"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -2091,8 +2285,12 @@
         <v>7.4847374847374845E-3</v>
       </c>
       <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="32"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -2118,8 +2316,12 @@
         <v>5.5759502453670414E-3</v>
       </c>
       <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="32"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2145,8 +2347,12 @@
         <v>3.5753384422311824E-2</v>
       </c>
       <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="32"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="30"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -2172,8 +2378,24 @@
         <v>3.9722239188537414E-2</v>
       </c>
       <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="32">
+        <f>AVERAGE(E18:E23)</f>
+        <v>-8.588501068717215E-2</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" ref="L18:N18" si="3">AVERAGE(F18:F23)</f>
+        <v>3.0935251175183993E-2</v>
+      </c>
+      <c r="M18" s="32">
+        <f t="shared" si="3"/>
+        <v>-7.3341322161701139E-2</v>
+      </c>
+      <c r="N18" s="30">
+        <f t="shared" si="3"/>
+        <v>3.3871044486900599E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -2199,8 +2421,12 @@
         <v>3.0404835250887146E-2</v>
       </c>
       <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="32"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -2226,8 +2452,12 @@
         <v>2.8152450989381798E-2</v>
       </c>
       <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2483,12 @@
         <v>3.653652016227029E-2</v>
       </c>
       <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="32"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -2280,8 +2514,12 @@
         <v>3.7977749430818171E-2</v>
       </c>
       <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="32"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="30"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -2307,8 +2545,12 @@
         <v>3.0432471899508769E-2</v>
       </c>
       <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="32"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2334,8 +2576,24 @@
         <v>1.1749677587867508E-2</v>
       </c>
       <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="32">
+        <f>AVERAGE(E24:E27)</f>
+        <v>-9.4790034186095468E-2</v>
+      </c>
+      <c r="L24" s="30">
+        <f t="shared" ref="L24:N24" si="4">AVERAGE(F24:F27)</f>
+        <v>2.0504822937861347E-2</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" si="4"/>
+        <v>-8.6571525304750846E-2</v>
+      </c>
+      <c r="N24" s="30">
+        <f t="shared" si="4"/>
+        <v>2.5440423488366615E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2361,8 +2619,12 @@
         <v>1.469597480505833E-2</v>
       </c>
       <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="32"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2388,8 +2650,12 @@
         <v>7.9928368693800364E-3</v>
       </c>
       <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="32"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2415,12 +2681,16 @@
         <v>6.7323204691160585E-2</v>
       </c>
       <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="K27" s="32"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="33">
@@ -2428,23 +2698,39 @@
         <v>-7.0421093503043361E-2</v>
       </c>
       <c r="F28" s="31">
-        <f t="shared" ref="F28:H28" si="0">AVERAGE(F3:F27)</f>
+        <f t="shared" ref="F28:H28" si="5">AVERAGE(F3:F27)</f>
         <v>2.2579594697382323E-2</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-5.9833502509802322E-2</v>
       </c>
       <c r="H28" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.4998873068029143E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="27" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="K28" s="33">
+        <f>AVERAGE(K3:K27)</f>
+        <v>-7.2392845917229234E-2</v>
+      </c>
+      <c r="L28" s="31">
+        <f t="shared" ref="L28:N28" si="6">AVERAGE(L3:L27)</f>
+        <v>2.4041247473235994E-2</v>
+      </c>
+      <c r="M28" s="33">
+        <f t="shared" si="6"/>
+        <v>-6.1622782699271052E-2</v>
+      </c>
+      <c r="N28" s="31">
+        <f t="shared" si="6"/>
+        <v>2.638109743139723E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="52"/>
       <c r="E29" s="34">
         <v>1.04</v>
       </c>
@@ -2457,12 +2743,24 @@
       <c r="H29" s="36">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
+      <c r="K29" s="34">
+        <v>1.04</v>
+      </c>
+      <c r="L29" s="36">
+        <v>1.07</v>
+      </c>
+      <c r="M29" s="34">
+        <v>1.17</v>
+      </c>
+      <c r="N29" s="36">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="35">
@@ -2477,14 +2775,28 @@
       <c r="H30" s="37">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="K30" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="L30" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="M30" s="35">
+        <v>0.83</v>
+      </c>
+      <c r="N30" s="37">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
@@ -2502,6 +2814,241 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E2ACBD-9693-4F03-81F0-E0BAC59F41D0}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="62">
+        <v>-0.10597134542924394</v>
+      </c>
+      <c r="D2" s="66">
+        <v>4.7686997422936181E-2</v>
+      </c>
+      <c r="E2" s="62">
+        <v>-9.1357032879979705E-2</v>
+      </c>
+      <c r="F2" s="66">
+        <v>4.8781251885194082E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="62">
+        <v>-4.3402404835064343E-2</v>
+      </c>
+      <c r="D3" s="66">
+        <v>1.2658458485629395E-2</v>
+      </c>
+      <c r="E3" s="62">
+        <v>-3.4198252720157238E-2</v>
+      </c>
+      <c r="F3" s="66">
+        <v>1.5189167019051694E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="62">
+        <v>-4.1036575319073752E-2</v>
+      </c>
+      <c r="D4" s="66">
+        <v>1.1458534245406639E-2</v>
+      </c>
+      <c r="E4" s="62">
+        <v>-3.1346363729927468E-2</v>
+      </c>
+      <c r="F4" s="66">
+        <v>1.3358794565088377E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="62">
+        <v>-6.3271705046725774E-2</v>
+      </c>
+      <c r="D5" s="66">
+        <v>2.1003420572398436E-2</v>
+      </c>
+      <c r="E5" s="62">
+        <v>-5.2922199399109957E-2</v>
+      </c>
+      <c r="F5" s="66">
+        <v>2.1645903143782012E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="62">
+        <v>-8.588501068717215E-2</v>
+      </c>
+      <c r="D6" s="66">
+        <v>3.0935251175183993E-2</v>
+      </c>
+      <c r="E6" s="62">
+        <v>-7.3341322161701139E-2</v>
+      </c>
+      <c r="F6" s="66">
+        <v>3.3871044486900599E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="62">
+        <v>-9.4790034186095468E-2</v>
+      </c>
+      <c r="D7" s="66">
+        <v>2.0504822937861347E-2</v>
+      </c>
+      <c r="E7" s="62">
+        <v>-8.6571525304750846E-2</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2.5440423488366615E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="63">
+        <v>-7.0421093503043361E-2</v>
+      </c>
+      <c r="D8" s="67">
+        <v>2.2579594697382323E-2</v>
+      </c>
+      <c r="E8" s="63">
+        <v>-5.9833502509802322E-2</v>
+      </c>
+      <c r="F8" s="67">
+        <v>2.4998873068029143E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1.04</v>
+      </c>
+      <c r="D9" s="68">
+        <v>1.07</v>
+      </c>
+      <c r="E9" s="64">
+        <v>1.17</v>
+      </c>
+      <c r="F9" s="68">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="65">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="69">
+        <v>0.98</v>
+      </c>
+      <c r="E10" s="65">
+        <v>0.83</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="17" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E17" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E6407F-D1A8-4830-99F0-9429777EA05C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2509,18 +3056,18 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="16.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="11.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12"/>
     <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +3087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +3108,7 @@
         <v>-0.85143606525572124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -2582,7 +3129,7 @@
         <v>-0.84376475798671224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -2603,7 +3150,7 @@
         <v>-0.57471867349737071</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +3171,7 @@
         <v>-0.45381786752391717</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -2645,7 +3192,7 @@
         <v>-0.87298098435958382</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -2666,7 +3213,7 @@
         <v>-0.47475761769503677</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>

--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587FFC26-2A36-4939-A05E-C8284F0BEBD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0D831-6E5D-4FBE-82B3-E2A23576C1E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="26940" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="68">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +251,36 @@
   <si>
     <t>H.266 + R-MED
 vs H.266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265 + R-MED 
+vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265 bypass 
+TransQuant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265
+RDPCM [5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.266 bypass 
+TransQuant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.266
+BDPCM [1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.266 + R-MED
+vs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,10 +288,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="\(\-0.00%\)"/>
     <numFmt numFmtId="178" formatCode="\(0%\)"/>
+    <numFmt numFmtId="180" formatCode="\-0.00%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -379,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,33 +487,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -497,7 +502,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -519,63 +569,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,7 +897,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,34 +914,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
@@ -1779,67 +1816,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1F13C-4775-4AF7-A1A2-40B25D98C6F8}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="60" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="60" customWidth="1"/>
+    <col min="9" max="11" width="9" style="60"/>
+    <col min="12" max="12" width="9.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="60"/>
+    <col min="14" max="14" width="10.75" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="K1" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="46"/>
-    </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1892,20 @@
       <c r="D3" s="9">
         <v>150</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="8">
         <v>-0.11095953848136603</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="61">
         <v>5.9939775018571582E-2</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="8">
         <v>-9.6714172635600559E-2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="61">
         <v>5.9890765730923494E-2</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="32">
-        <f>AVERAGE(E3:E4)</f>
-        <v>-0.10597134542924394</v>
-      </c>
-      <c r="L3" s="30">
-        <f>AVERAGE(F3:F4)</f>
-        <v>4.7686997422936181E-2</v>
-      </c>
-      <c r="M3" s="32">
-        <f>AVERAGE(G3:G4)</f>
-        <v>-9.1357032879979705E-2</v>
-      </c>
-      <c r="N3" s="30">
-        <f>AVERAGE(H3:H4)</f>
-        <v>4.8781251885194082E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1895,25 +1918,20 @@
       <c r="D4" s="9">
         <v>150</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="8">
         <v>-0.10098315237712187</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="61">
         <v>3.5434219827300772E-2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="8">
         <v>-8.5999893124358837E-2</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="61">
         <v>3.7671738039464678E-2</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1926,37 +1944,20 @@
       <c r="D5" s="9">
         <v>500</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="8">
         <v>-2.1931170457998857E-2</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="61">
         <v>4.8780746732910813E-3</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="8">
         <v>-1.4168213476831906E-2</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="61">
         <v>5.2146188113648892E-3</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="32">
-        <f>AVERAGE(E5:E8)</f>
-        <v>-4.3402404835064343E-2</v>
-      </c>
-      <c r="L5" s="30">
-        <f t="shared" ref="L5:N5" si="0">AVERAGE(F5:F8)</f>
-        <v>1.2658458485629395E-2</v>
-      </c>
-      <c r="M5" s="32">
-        <f t="shared" si="0"/>
-        <v>-3.4198252720157238E-2</v>
-      </c>
-      <c r="N5" s="30">
-        <f t="shared" si="0"/>
-        <v>1.5189167019051694E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -1969,25 +1970,20 @@
       <c r="D6" s="9">
         <v>600</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="8">
         <v>-5.4281050239151557E-2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="61">
         <v>9.5763382925902092E-3</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="8">
         <v>-4.1640738225098187E-2</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="61">
         <v>1.1479736071376071E-2</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -2000,25 +1996,20 @@
       <c r="D7" s="9">
         <v>500</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="8">
         <v>-2.9238177476898872E-2</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="61">
         <v>9.8702513679342265E-3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="8">
         <v>-2.1353363057088424E-2</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="61">
         <v>1.0532115562873126E-2</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2031,25 +2022,20 @@
       <c r="D8" s="9">
         <v>240</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="8">
         <v>-6.8159221166208081E-2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="61">
         <v>2.6309169608702065E-2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="8">
         <v>-5.9630696121610441E-2</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="61">
         <v>3.3530197630592694E-2</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -2062,37 +2048,20 @@
       <c r="D9" s="9">
         <v>240</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="8">
         <v>-5.8463200647483539E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="61">
         <v>2.2636495366830461E-2</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="8">
         <v>-4.8717222502321703E-2</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="61">
         <v>2.583539252662501E-2</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="32">
-        <f>AVERAGE(E9:E12)</f>
-        <v>-4.1036575319073752E-2</v>
-      </c>
-      <c r="L9" s="30">
-        <f t="shared" ref="L9:N9" si="1">AVERAGE(F9:F12)</f>
-        <v>1.1458534245406639E-2</v>
-      </c>
-      <c r="M9" s="32">
-        <f t="shared" si="1"/>
-        <v>-3.1346363729927468E-2</v>
-      </c>
-      <c r="N9" s="30">
-        <f t="shared" si="1"/>
-        <v>1.3358794565088377E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -2105,25 +2074,20 @@
       <c r="D10" s="9">
         <v>500</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="8">
         <v>-2.6082558902753517E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="61">
         <v>1.1441078991314135E-2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="8">
         <v>-1.9234642880217697E-2</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="61">
         <v>1.2184368122809843E-2</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -2136,25 +2100,20 @@
       <c r="D11" s="9">
         <v>600</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="8">
         <v>-4.161459718160064E-2</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="61">
         <v>6.6320816921751208E-3</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="8">
         <v>-3.0967426596376076E-2</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="61">
         <v>8.5574131833144849E-3</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="30"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -2167,25 +2126,20 @@
       <c r="D12" s="9">
         <v>500</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="8">
         <v>-3.7985944544457334E-2</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="61">
         <v>5.1244809313068379E-3</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="8">
         <v>-2.6466162940794395E-2</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="61">
         <v>6.8580044276041708E-3</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2198,37 +2152,20 @@
       <c r="D13" s="9">
         <v>300</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="8">
         <v>-7.029437474121443E-2</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="61">
         <v>2.6379802627931475E-2</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="8">
         <v>-6.1331820163450027E-2</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="61">
         <v>3.2470976064210982E-2</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="32">
-        <f>AVERAGE(E13:E17)</f>
-        <v>-6.3271705046725774E-2</v>
-      </c>
-      <c r="L13" s="30">
-        <f t="shared" ref="L13:N13" si="2">AVERAGE(F13:F17)</f>
-        <v>2.1003420572398436E-2</v>
-      </c>
-      <c r="M13" s="32">
-        <f t="shared" si="2"/>
-        <v>-5.2922199399109957E-2</v>
-      </c>
-      <c r="N13" s="30">
-        <f t="shared" si="2"/>
-        <v>2.1645903143782012E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>47</v>
       </c>
@@ -2241,25 +2178,20 @@
       <c r="D14" s="9">
         <v>500</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="8">
         <v>-9.1019643189264199E-2</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="61">
         <v>1.9234416487545834E-2</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="8">
         <v>-7.7144004199993829E-2</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="61">
         <v>2.6944467502282726E-2</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
@@ -2272,25 +2204,20 @@
       <c r="D15" s="9">
         <v>500</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="8">
         <v>-4.113398216284038E-2</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="61">
         <v>1.9270096876351187E-2</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="8">
         <v>-3.1454427160347784E-2</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="61">
         <v>7.4847374847374845E-3</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -2303,25 +2230,20 @@
       <c r="D16" s="9">
         <v>600</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="8">
         <v>-3.0966163113558286E-2</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="61">
         <v>4.8139776406622278E-3</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="8">
         <v>-2.2380706033059888E-2</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="61">
         <v>5.5759502453670414E-3</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>47</v>
       </c>
@@ -2334,25 +2256,20 @@
       <c r="D17" s="9">
         <v>300</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="8">
         <v>-8.2944362026751581E-2</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="61">
         <v>3.5318809229501445E-2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="8">
         <v>-7.2300039438698269E-2</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="61">
         <v>3.5753384422311824E-2</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="30"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -2365,37 +2282,20 @@
       <c r="D18" s="9">
         <v>600</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="8">
         <v>-9.2313913306388037E-2</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="61">
         <v>3.833096709958983E-2</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="8">
         <v>-7.9164082896560989E-2</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="61">
         <v>3.9722239188537414E-2</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="32">
-        <f>AVERAGE(E18:E23)</f>
-        <v>-8.588501068717215E-2</v>
-      </c>
-      <c r="L18" s="30">
-        <f t="shared" ref="L18:N18" si="3">AVERAGE(F18:F23)</f>
-        <v>3.0935251175183993E-2</v>
-      </c>
-      <c r="M18" s="32">
-        <f t="shared" si="3"/>
-        <v>-7.3341322161701139E-2</v>
-      </c>
-      <c r="N18" s="30">
-        <f t="shared" si="3"/>
-        <v>3.3871044486900599E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -2408,25 +2308,20 @@
       <c r="D19" s="9">
         <v>600</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="8">
         <v>-6.9902322992054247E-2</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="61">
         <v>2.5809304180465731E-2</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="8">
         <v>-6.1340816322162359E-2</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="61">
         <v>3.0404835250887146E-2</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="30"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -2439,25 +2334,20 @@
       <c r="D20" s="9">
         <v>600</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="8">
         <v>-7.3534509124273631E-2</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="61">
         <v>2.5950532897009923E-2</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="8">
         <v>-6.3990933824706192E-2</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="61">
         <v>2.8152450989381798E-2</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="30"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -2470,25 +2360,20 @@
       <c r="D21" s="9">
         <v>600</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="8">
         <v>-9.9318148905836012E-2</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="61">
         <v>3.2996709966023899E-2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="8">
         <v>-8.5563079922705981E-2</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="61">
         <v>3.653652016227029E-2</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="30"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -2501,25 +2386,20 @@
       <c r="D22" s="9">
         <v>600</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="8">
         <v>-9.1014006082851789E-2</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="61">
         <v>3.6029150255473402E-2</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="8">
         <v>-7.6394017624696359E-2</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="61">
         <v>3.7977749430818171E-2</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="30"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
@@ -2532,25 +2412,20 @@
       <c r="D23" s="9">
         <v>600</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="8">
         <v>-8.9227163711629226E-2</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="61">
         <v>2.6494842652541178E-2</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="8">
         <v>-7.3595002379375024E-2</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="61">
         <v>3.0432471899508769E-2</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="30"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2563,37 +2438,20 @@
       <c r="D24" s="9">
         <v>500</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="8">
         <v>-3.0070399308517293E-2</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="61">
         <v>1.185753858945021E-2</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="8">
         <v>-2.2071635232526789E-2</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="61">
         <v>1.1749677587867508E-2</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="32">
-        <f>AVERAGE(E24:E27)</f>
-        <v>-9.4790034186095468E-2</v>
-      </c>
-      <c r="L24" s="30">
-        <f t="shared" ref="L24:N24" si="4">AVERAGE(F24:F27)</f>
-        <v>2.0504822937861347E-2</v>
-      </c>
-      <c r="M24" s="32">
-        <f t="shared" si="4"/>
-        <v>-8.6571525304750846E-2</v>
-      </c>
-      <c r="N24" s="30">
-        <f t="shared" si="4"/>
-        <v>2.5440423488366615E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2606,25 +2464,20 @@
       <c r="D25" s="9">
         <v>500</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="8">
         <v>-9.1305135597465503E-2</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="61">
         <v>1.3460880184289164E-2</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="8">
         <v>-7.858280322820492E-2</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="61">
         <v>1.469597480505833E-2</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2637,25 +2490,20 @@
       <c r="D26" s="9">
         <v>300</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="8">
         <v>-7.3325225358109966E-2</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="61">
         <v>5.1442805039269672E-3</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="8">
         <v>-7.2017172684312944E-2</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="61">
         <v>7.9928368693800364E-3</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="30"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2668,144 +2516,95 @@
       <c r="D27" s="9">
         <v>500</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="8">
         <v>-0.18445937648028912</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="61">
         <v>5.1556592473779049E-2</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="8">
         <v>-0.17361449007395874</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="61">
         <v>6.7323204691160585E-2</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="30"/>
-    </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+    </row>
+    <row r="28" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="33">
+      <c r="E28" s="25">
         <f>AVERAGE(E3:E27)</f>
         <v>-7.0421093503043361E-2</v>
       </c>
-      <c r="F28" s="31">
-        <f t="shared" ref="F28:H28" si="5">AVERAGE(F3:F27)</f>
+      <c r="F28" s="62">
+        <f t="shared" ref="F28:H28" si="0">AVERAGE(F3:F27)</f>
         <v>2.2579594697382323E-2</v>
       </c>
-      <c r="G28" s="33">
-        <f t="shared" si="5"/>
+      <c r="G28" s="25">
+        <f t="shared" si="0"/>
         <v>-5.9833502509802322E-2</v>
       </c>
-      <c r="H28" s="31">
-        <f t="shared" si="5"/>
+      <c r="H28" s="62">
+        <f t="shared" si="0"/>
         <v>2.4998873068029143E-2</v>
       </c>
-      <c r="K28" s="33">
-        <f>AVERAGE(K3:K27)</f>
-        <v>-7.2392845917229234E-2</v>
-      </c>
-      <c r="L28" s="31">
-        <f t="shared" ref="L28:N28" si="6">AVERAGE(L3:L27)</f>
-        <v>2.4041247473235994E-2</v>
-      </c>
-      <c r="M28" s="33">
-        <f t="shared" si="6"/>
-        <v>-6.1622782699271052E-2</v>
-      </c>
-      <c r="N28" s="31">
-        <f t="shared" si="6"/>
-        <v>2.638109743139723E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+    </row>
+    <row r="29" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="E29" s="34">
+      <c r="B29" s="57"/>
+      <c r="E29" s="64">
         <v>1.04</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="65">
         <v>1.07</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="64">
         <v>1.17</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="65">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K29" s="34">
-        <v>1.04</v>
-      </c>
-      <c r="L29" s="36">
-        <v>1.07</v>
-      </c>
-      <c r="M29" s="34">
-        <v>1.17</v>
-      </c>
-      <c r="N29" s="36">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+    </row>
+    <row r="30" spans="1:8" s="63" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="35">
+      <c r="B30" s="58"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67">
         <v>0.95</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="68">
         <v>0.98</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="67">
         <v>0.83</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="68">
         <v>0.93</v>
       </c>
-      <c r="K30" s="35">
-        <v>0.95</v>
-      </c>
-      <c r="L30" s="37">
-        <v>0.98</v>
-      </c>
-      <c r="M30" s="35">
-        <v>0.83</v>
-      </c>
-      <c r="N30" s="37">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
-        <v>59</v>
-      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K1:L2"/>
-    <mergeCell ref="M1:N2"/>
+  <mergeCells count="9">
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,203 +2628,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="70"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="39">
         <v>-0.10597134542924394</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="43">
         <v>4.7686997422936181E-2</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="39">
         <v>-9.1357032879979705E-2</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="43">
         <v>4.8781251885194082E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="39">
         <v>-4.3402404835064343E-2</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="43">
         <v>1.2658458485629395E-2</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="39">
         <v>-3.4198252720157238E-2</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="43">
         <v>1.5189167019051694E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="39">
         <v>-4.1036575319073752E-2</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="43">
         <v>1.1458534245406639E-2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="39">
         <v>-3.1346363729927468E-2</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="43">
         <v>1.3358794565088377E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="39">
         <v>-6.3271705046725774E-2</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="43">
         <v>2.1003420572398436E-2</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="39">
         <v>-5.2922199399109957E-2</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="43">
         <v>2.1645903143782012E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="39">
         <v>-8.588501068717215E-2</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="43">
         <v>3.0935251175183993E-2</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="39">
         <v>-7.3341322161701139E-2</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="43">
         <v>3.3871044486900599E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="39">
         <v>-9.4790034186095468E-2</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="43">
         <v>2.0504822937861347E-2</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="39">
         <v>-8.6571525304750846E-2</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="43">
         <v>2.5440423488366615E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="40">
         <v>-7.0421093503043361E-2</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="44">
         <v>2.2579594697382323E-2</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="40">
         <v>-5.9833502509802322E-2</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="44">
         <v>2.4998873068029143E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="41">
         <v>1.04</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="45">
         <v>1.07</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="41">
         <v>1.17</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="45">
         <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="42">
         <v>0.95</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="46">
         <v>0.98</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="42">
         <v>0.83</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="46">
         <v>0.93</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="7"/>
@@ -3035,7 +2834,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="17" spans="5:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E17" s="55"/>
+      <c r="E17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3239,4 +3038,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC2FAF-ADCB-4685-9680-84E2B4AEF22E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0D831-6E5D-4FBE-82B3-E2A23576C1E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C056C-EFDE-4F51-8FFB-A478A9836B7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="26940" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="82">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,62 @@
   <si>
     <t>H.266 + R-MED
 vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-MED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP-HV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP+SWP2+DTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-EDPCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDPCM+pwm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasketballDrillText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlideEditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlideShow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +348,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="\(\-0.00%\)"/>
     <numFmt numFmtId="178" formatCode="\(0%\)"/>
-    <numFmt numFmtId="180" formatCode="\-0.00%"/>
+    <numFmt numFmtId="179" formatCode="\-0.00%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -361,7 +417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -407,11 +463,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,6 +615,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,50 +666,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,34 +999,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="48" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
@@ -1818,54 +1903,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1F13C-4775-4AF7-A1A2-40B25D98C6F8}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="60" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="60" customWidth="1"/>
-    <col min="9" max="11" width="9" style="60"/>
-    <col min="12" max="12" width="9.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="60"/>
-    <col min="14" max="14" width="10.75" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="5.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="48" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="48" customWidth="1"/>
+    <col min="9" max="11" width="9" style="48"/>
+    <col min="12" max="12" width="9.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="48"/>
+    <col min="14" max="14" width="10.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="47" t="s">
         <v>63</v>
       </c>
@@ -1895,13 +1980,13 @@
       <c r="E3" s="8">
         <v>-0.11095953848136603</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="49">
         <v>5.9939775018571582E-2</v>
       </c>
       <c r="G3" s="8">
         <v>-9.6714172635600559E-2</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="49">
         <v>5.9890765730923494E-2</v>
       </c>
     </row>
@@ -1921,13 +2006,13 @@
       <c r="E4" s="8">
         <v>-0.10098315237712187</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="49">
         <v>3.5434219827300772E-2</v>
       </c>
       <c r="G4" s="8">
         <v>-8.5999893124358837E-2</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="49">
         <v>3.7671738039464678E-2</v>
       </c>
     </row>
@@ -1947,13 +2032,13 @@
       <c r="E5" s="8">
         <v>-2.1931170457998857E-2</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="49">
         <v>4.8780746732910813E-3</v>
       </c>
       <c r="G5" s="8">
         <v>-1.4168213476831906E-2</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="49">
         <v>5.2146188113648892E-3</v>
       </c>
     </row>
@@ -1973,13 +2058,13 @@
       <c r="E6" s="8">
         <v>-5.4281050239151557E-2</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="49">
         <v>9.5763382925902092E-3</v>
       </c>
       <c r="G6" s="8">
         <v>-4.1640738225098187E-2</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="49">
         <v>1.1479736071376071E-2</v>
       </c>
     </row>
@@ -1999,13 +2084,13 @@
       <c r="E7" s="8">
         <v>-2.9238177476898872E-2</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="49">
         <v>9.8702513679342265E-3</v>
       </c>
       <c r="G7" s="8">
         <v>-2.1353363057088424E-2</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="49">
         <v>1.0532115562873126E-2</v>
       </c>
     </row>
@@ -2025,13 +2110,13 @@
       <c r="E8" s="8">
         <v>-6.8159221166208081E-2</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="49">
         <v>2.6309169608702065E-2</v>
       </c>
       <c r="G8" s="8">
         <v>-5.9630696121610441E-2</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="49">
         <v>3.3530197630592694E-2</v>
       </c>
     </row>
@@ -2051,13 +2136,13 @@
       <c r="E9" s="8">
         <v>-5.8463200647483539E-2</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="49">
         <v>2.2636495366830461E-2</v>
       </c>
       <c r="G9" s="8">
         <v>-4.8717222502321703E-2</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="49">
         <v>2.583539252662501E-2</v>
       </c>
     </row>
@@ -2077,13 +2162,13 @@
       <c r="E10" s="8">
         <v>-2.6082558902753517E-2</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="49">
         <v>1.1441078991314135E-2</v>
       </c>
       <c r="G10" s="8">
         <v>-1.9234642880217697E-2</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="49">
         <v>1.2184368122809843E-2</v>
       </c>
     </row>
@@ -2103,13 +2188,13 @@
       <c r="E11" s="8">
         <v>-4.161459718160064E-2</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="49">
         <v>6.6320816921751208E-3</v>
       </c>
       <c r="G11" s="8">
         <v>-3.0967426596376076E-2</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="49">
         <v>8.5574131833144849E-3</v>
       </c>
     </row>
@@ -2129,13 +2214,13 @@
       <c r="E12" s="8">
         <v>-3.7985944544457334E-2</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="49">
         <v>5.1244809313068379E-3</v>
       </c>
       <c r="G12" s="8">
         <v>-2.6466162940794395E-2</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="49">
         <v>6.8580044276041708E-3</v>
       </c>
     </row>
@@ -2155,13 +2240,13 @@
       <c r="E13" s="8">
         <v>-7.029437474121443E-2</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="49">
         <v>2.6379802627931475E-2</v>
       </c>
       <c r="G13" s="8">
         <v>-6.1331820163450027E-2</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="49">
         <v>3.2470976064210982E-2</v>
       </c>
     </row>
@@ -2181,13 +2266,13 @@
       <c r="E14" s="8">
         <v>-9.1019643189264199E-2</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="49">
         <v>1.9234416487545834E-2</v>
       </c>
       <c r="G14" s="8">
         <v>-7.7144004199993829E-2</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="49">
         <v>2.6944467502282726E-2</v>
       </c>
     </row>
@@ -2207,13 +2292,13 @@
       <c r="E15" s="8">
         <v>-4.113398216284038E-2</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="49">
         <v>1.9270096876351187E-2</v>
       </c>
       <c r="G15" s="8">
         <v>-3.1454427160347784E-2</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="49">
         <v>7.4847374847374845E-3</v>
       </c>
     </row>
@@ -2233,13 +2318,13 @@
       <c r="E16" s="8">
         <v>-3.0966163113558286E-2</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="49">
         <v>4.8139776406622278E-3</v>
       </c>
       <c r="G16" s="8">
         <v>-2.2380706033059888E-2</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="49">
         <v>5.5759502453670414E-3</v>
       </c>
     </row>
@@ -2259,13 +2344,13 @@
       <c r="E17" s="8">
         <v>-8.2944362026751581E-2</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="49">
         <v>3.5318809229501445E-2</v>
       </c>
       <c r="G17" s="8">
         <v>-7.2300039438698269E-2</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="49">
         <v>3.5753384422311824E-2</v>
       </c>
     </row>
@@ -2285,13 +2370,13 @@
       <c r="E18" s="8">
         <v>-9.2313913306388037E-2</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="49">
         <v>3.833096709958983E-2</v>
       </c>
       <c r="G18" s="8">
         <v>-7.9164082896560989E-2</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="49">
         <v>3.9722239188537414E-2</v>
       </c>
     </row>
@@ -2311,13 +2396,13 @@
       <c r="E19" s="8">
         <v>-6.9902322992054247E-2</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="49">
         <v>2.5809304180465731E-2</v>
       </c>
       <c r="G19" s="8">
         <v>-6.1340816322162359E-2</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="49">
         <v>3.0404835250887146E-2</v>
       </c>
     </row>
@@ -2337,13 +2422,13 @@
       <c r="E20" s="8">
         <v>-7.3534509124273631E-2</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="49">
         <v>2.5950532897009923E-2</v>
       </c>
       <c r="G20" s="8">
         <v>-6.3990933824706192E-2</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="49">
         <v>2.8152450989381798E-2</v>
       </c>
     </row>
@@ -2363,13 +2448,13 @@
       <c r="E21" s="8">
         <v>-9.9318148905836012E-2</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="49">
         <v>3.2996709966023899E-2</v>
       </c>
       <c r="G21" s="8">
         <v>-8.5563079922705981E-2</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="49">
         <v>3.653652016227029E-2</v>
       </c>
     </row>
@@ -2389,13 +2474,13 @@
       <c r="E22" s="8">
         <v>-9.1014006082851789E-2</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="49">
         <v>3.6029150255473402E-2</v>
       </c>
       <c r="G22" s="8">
         <v>-7.6394017624696359E-2</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="49">
         <v>3.7977749430818171E-2</v>
       </c>
     </row>
@@ -2415,13 +2500,13 @@
       <c r="E23" s="8">
         <v>-8.9227163711629226E-2</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="49">
         <v>2.6494842652541178E-2</v>
       </c>
       <c r="G23" s="8">
         <v>-7.3595002379375024E-2</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="49">
         <v>3.0432471899508769E-2</v>
       </c>
     </row>
@@ -2441,13 +2526,13 @@
       <c r="E24" s="8">
         <v>-3.0070399308517293E-2</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="49">
         <v>1.185753858945021E-2</v>
       </c>
       <c r="G24" s="8">
         <v>-2.2071635232526789E-2</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="49">
         <v>1.1749677587867508E-2</v>
       </c>
     </row>
@@ -2467,13 +2552,13 @@
       <c r="E25" s="8">
         <v>-9.1305135597465503E-2</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="49">
         <v>1.3460880184289164E-2</v>
       </c>
       <c r="G25" s="8">
         <v>-7.858280322820492E-2</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="49">
         <v>1.469597480505833E-2</v>
       </c>
     </row>
@@ -2493,13 +2578,13 @@
       <c r="E26" s="8">
         <v>-7.3325225358109966E-2</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="49">
         <v>5.1442805039269672E-3</v>
       </c>
       <c r="G26" s="8">
         <v>-7.2017172684312944E-2</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="49">
         <v>7.9928368693800364E-3</v>
       </c>
     </row>
@@ -2519,28 +2604,28 @@
       <c r="E27" s="8">
         <v>-0.18445937648028912</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="49">
         <v>5.1556592473779049E-2</v>
       </c>
       <c r="G27" s="8">
         <v>-0.17361449007395874</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="49">
         <v>6.7323204691160585E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+    <row r="28" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="25">
         <f>AVERAGE(E3:E27)</f>
         <v>-7.0421093503043361E-2</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="50">
         <f t="shared" ref="F28:H28" si="0">AVERAGE(F3:F27)</f>
         <v>2.2579594697382323E-2</v>
       </c>
@@ -2548,63 +2633,63 @@
         <f t="shared" si="0"/>
         <v>-5.9833502509802322E-2</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="50">
         <f t="shared" si="0"/>
         <v>2.4998873068029143E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="E29" s="64">
+      <c r="B29" s="66"/>
+      <c r="E29" s="52">
         <v>1.04</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="53">
         <v>1.07</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="52">
         <v>1.17</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="53">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="63" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+    <row r="30" spans="1:8" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67">
+      <c r="B30" s="67"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55">
         <v>0.95</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="56">
         <v>0.98</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="55">
         <v>0.83</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="56">
         <v>0.93</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
+      <c r="A31" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2617,7 +2702,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="C20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2634,14 +2719,14 @@
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
@@ -3042,15 +3127,387 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC2FAF-ADCB-4685-9680-84E2B4AEF22E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="70"/>
+    <col min="7" max="7" width="0" style="70" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="70"/>
+    <col min="9" max="10" width="0" style="70" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="70" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-4.4699999999999997E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>-5.3699999999999998E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>-5.0700000000000002E-2</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>-6.8159221166208081E-2</v>
+      </c>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-3.3799999999999997E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-6.1199999999999997E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
+        <v>-5.8463200647483539E-2</v>
+      </c>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-5.7700000000000001E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-5.9299999999999999E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-3.3300000000000003E-2</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
+        <v>-3.0070399308517293E-2</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-9.7600000000000006E-2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-0.1115</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
+        <v>-7.3325225358109966E-2</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-9.5899999999999999E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-0.12690000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-0.12740000000000001</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-0.14069999999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>-0.1406</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-0.13039999999999999</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
+        <v>-0.18445937648028912</v>
+      </c>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="25">
+        <f>AVERAGE(C2:C6)</f>
+        <v>-4.9399999999999999E-2</v>
+      </c>
+      <c r="D7" s="25">
+        <f>AVERAGE(D2:D6)</f>
+        <v>-7.4660000000000004E-2</v>
+      </c>
+      <c r="E7" s="25">
+        <f>AVERAGE(E2:E6)</f>
+        <v>-7.5740000000000002E-2</v>
+      </c>
+      <c r="F7" s="25">
+        <f>AVERAGE(F2:F6)</f>
+        <v>-8.6739999999999998E-2</v>
+      </c>
+      <c r="G7" s="25">
+        <f>AVERAGE(G2:G6)</f>
+        <v>-5.058E-2</v>
+      </c>
+      <c r="H7" s="25">
+        <f>AVERAGE(H2:H6)</f>
+        <v>-6.9900000000000004E-2</v>
+      </c>
+      <c r="I7" s="25" t="e">
+        <f>AVERAGE(I2:I6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="25" t="e">
+        <f>AVERAGE(J2:J6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="25">
+        <f>AVERAGE(K2:K6)</f>
+        <v>-8.2895484592121593E-2</v>
+      </c>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="52">
+        <f>(98+97+97)/3/100</f>
+        <v>0.97333333333333327</v>
+      </c>
+      <c r="D8" s="52">
+        <f>(96+98+96)/3/100</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="E8" s="52">
+        <f>(96+99+96)/3/100</f>
+        <v>0.97</v>
+      </c>
+      <c r="F8" s="52">
+        <f>(273+281+266)/3/100</f>
+        <v>2.7333333333333329</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52">
+        <v>1.04</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52">
+        <v>1.04</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76">
+        <f>(100+99+99)/3/100</f>
+        <v>0.99333333333333329</v>
+      </c>
+      <c r="D9" s="76">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="76">
+        <v>0.98</v>
+      </c>
+      <c r="F9" s="76">
+        <f>(195+195+197)/3/100</f>
+        <v>1.9566666666666666</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76">
+        <v>1.03</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="73">
+        <v>-0.11</v>
+      </c>
+      <c r="D13" s="73">
+        <v>-0.13869999999999999</v>
+      </c>
+      <c r="E13" s="73">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F13" s="73">
+        <v>-0.14360000000000001</v>
+      </c>
+      <c r="G13" s="73">
+        <v>-8.4099999999999994E-2</v>
+      </c>
+      <c r="H13" s="73">
+        <v>-0.14219999999999999</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="8">
+        <v>-9.1305135597465503E-2</v>
+      </c>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>